--- a/experiment/output/results/VLCS/RSC/DG/3.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,352 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250211_02-07-30_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>79.93300000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>78.41500000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>72.751</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250211_05-52-11_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>78.526</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76.416</v>
+      </c>
+      <c r="F4" t="n">
+        <v>73.306</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250211_04-16-22_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>74.343</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73.45399999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66.97499999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250210_18-08-10_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>79.822</v>
+      </c>
+      <c r="E6" t="n">
+        <v>77.416</v>
+      </c>
+      <c r="F6" t="n">
+        <v>73.38</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250210_13-16-49_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>80.489</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70.307</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250210_15-50-17_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>76.453</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76.453</v>
+      </c>
+      <c r="F8" t="n">
+        <v>74.491</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250210_22-29-47_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>78.378</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76.268</v>
+      </c>
+      <c r="F9" t="n">
+        <v>68.456</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250210_20-12-19_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>79.045</v>
+      </c>
+      <c r="E10" t="n">
+        <v>74.417</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71.60299999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250211_08-52-44_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250211_00-19-52_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>80.155</v>
+      </c>
+      <c r="E12" t="n">
+        <v>79.637</v>
+      </c>
+      <c r="F12" t="n">
+        <v>73.306</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>250211_07-21-54_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>79.67400000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75.23099999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>68.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment/output/results/VLCS/RSC/DG/3.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,369 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250131_10-53-30_resnet50_EVE</t>
+          <t>250211_00-19-52_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77.786</v>
+        <v>80.155</v>
       </c>
       <c r="E2" t="n">
-        <v>77.786</v>
+        <v>79.637</v>
       </c>
       <c r="F2" t="n">
-        <v>74.75</v>
+        <v>73.306</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250211_02-07-30_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>79.93300000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>78.41500000000001</v>
-      </c>
-      <c r="F3" t="n">
-        <v>72.751</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250211_05-52-11_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>78.526</v>
-      </c>
-      <c r="E4" t="n">
-        <v>76.416</v>
-      </c>
-      <c r="F4" t="n">
-        <v>73.306</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250211_04-16-22_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>74.343</v>
-      </c>
-      <c r="E5" t="n">
-        <v>73.45399999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>66.97499999999999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250210_18-08-10_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>79.822</v>
-      </c>
-      <c r="E6" t="n">
-        <v>77.416</v>
-      </c>
-      <c r="F6" t="n">
-        <v>73.38</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250210_13-16-49_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>80.489</v>
-      </c>
-      <c r="E7" t="n">
-        <v>75.75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>70.307</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>250210_15-50-17_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>76.453</v>
-      </c>
-      <c r="E8" t="n">
-        <v>76.453</v>
-      </c>
-      <c r="F8" t="n">
-        <v>74.491</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>250210_22-29-47_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>78.378</v>
-      </c>
-      <c r="E9" t="n">
-        <v>76.268</v>
-      </c>
-      <c r="F9" t="n">
-        <v>68.456</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>250210_20-12-19_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>79.045</v>
-      </c>
-      <c r="E10" t="n">
-        <v>74.417</v>
-      </c>
-      <c r="F10" t="n">
-        <v>71.60299999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>250211_08-52-44_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>250211_00-19-52_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>80.155</v>
-      </c>
-      <c r="E12" t="n">
-        <v>79.637</v>
-      </c>
-      <c r="F12" t="n">
-        <v>73.306</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RSC</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>250211_07-21-54_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>79.67400000000001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75.23099999999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>68.53</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/VLCS/RSC/DG/3.xlsx
+++ b/experiment/output/results/VLCS/RSC/DG/3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,23 +488,735 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>250217_17-12-18_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250216_05-05-42_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>70.863</v>
+      </c>
+      <c r="E3" t="n">
+        <v>69.715</v>
+      </c>
+      <c r="F3" t="n">
+        <v>61.644</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>250217_17-09-46_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250216_16-04-57_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>77.89700000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>77.89700000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>68.752</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250217_17-09-40_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250217_15-35-20_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250216_09-55-52_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>76.56399999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>76.56399999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>64.31</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>250217_06-24-18_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>76.342</v>
+      </c>
+      <c r="E9" t="n">
+        <v>76.749</v>
+      </c>
+      <c r="F9" t="n">
+        <v>74.232</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>250216_20-41-44_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>78.045</v>
+      </c>
+      <c r="E10" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>71.86199999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>250217_02-31-39_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>74.417</v>
+      </c>
+      <c r="E11" t="n">
+        <v>72.973</v>
+      </c>
+      <c r="F11" t="n">
+        <v>69.64100000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>250217_14-11-45_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>71.60299999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>72.381</v>
+      </c>
+      <c r="F12" t="n">
+        <v>70.529</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>250216_23-36-28_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>76.268</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.935</v>
+      </c>
+      <c r="F13" t="n">
+        <v>70.34399999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>250216_17-46-12_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>78.267</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.935</v>
+      </c>
+      <c r="F14" t="n">
+        <v>71.048</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>250216_14-20-40_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>77.63800000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>73.084</v>
+      </c>
+      <c r="F15" t="n">
+        <v>69.789</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>250217_03-57-13_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>73.565</v>
+      </c>
+      <c r="E16" t="n">
+        <v>74.26900000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>64.19799999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>250216_22-11-23_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>79.08199999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>72.825</v>
+      </c>
+      <c r="F17" t="n">
+        <v>65.27200000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>250216_11-31-56_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>75.861</v>
+      </c>
+      <c r="E18" t="n">
+        <v>73.306</v>
+      </c>
+      <c r="F18" t="n">
+        <v>72.67700000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>250211_00-19-52_resnet50_GENIE</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D19" t="n">
         <v>80.155</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E19" t="n">
         <v>79.637</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F19" t="n">
         <v>73.306</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H19" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>250217_07-53-03_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>77.934</v>
+      </c>
+      <c r="E20" t="n">
+        <v>74.121</v>
+      </c>
+      <c r="F20" t="n">
+        <v>73.232</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>250216_08-21-00_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>78.045</v>
+      </c>
+      <c r="E21" t="n">
+        <v>77.009</v>
+      </c>
+      <c r="F21" t="n">
+        <v>72.34399999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>250217_09-19-21_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>80.00700000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>71.08499999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>73.417</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>250217_12-46-08_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>77.379</v>
+      </c>
+      <c r="E23" t="n">
+        <v>77.379</v>
+      </c>
+      <c r="F23" t="n">
+        <v>72.529</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>250217_15-35-26_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>75.676</v>
+      </c>
+      <c r="E24" t="n">
+        <v>72.047</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64.86499999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>250217_11-17-54_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>77.48999999999999</v>
+      </c>
+      <c r="E25" t="n">
+        <v>73.121</v>
+      </c>
+      <c r="F25" t="n">
+        <v>70.307</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
